--- a/Acceptance criteria.xlsx
+++ b/Acceptance criteria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cifxdcawppa0001\home_business\T0312969\Apprenticship Docs\Agile Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fortn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423D29F3-C1CB-4D9A-8F20-2BE27A06967C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADD0E63-7F6A-4448-9B2D-E8F385BA30C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="18270" xr2:uid="{D9905D4A-2F3F-4A39-A42E-CDD0036A5348}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{D9905D4A-2F3F-4A39-A42E-CDD0036A5348}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Criteria</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>To be tested during testing fazes of the project and code to reviewed to confirm the speed can easily be adjusted.</t>
+  </si>
+  <si>
+    <t>Testing has been done and confirmed to meet the requirment.</t>
+  </si>
+  <si>
+    <t>Audio has been implemted and cofirmed to be working. Each function has its own version of audio to identiy the function</t>
+  </si>
+  <si>
+    <t>commentation goes into extra details to make the coding easier to understand. Programing has been altered and simplied.</t>
+  </si>
+  <si>
+    <t>Speed has been tested to be safe and unable to damage componets speed can also be slowed down and sped up depending on needs</t>
   </si>
 </sst>
 </file>
@@ -104,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -125,6 +137,28 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -139,11 +173,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,74 +518,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655E3506-5BA0-4B57-A5C2-3887F08C94D9}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
